--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_20-13.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_20-13.xlsx
@@ -155,7 +155,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>DELAREX 5MG 30TAB</t>
@@ -380,6 +380,12 @@
     <t>6:2</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7779:0</t>
+  </si>
+  <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -395,10 +401,13 @@
     <t xml:space="preserve">ريست سبورت </t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>24:0</t>
@@ -1717,11 +1726,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -3271,17 +3280,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>94.5</v>
+        <v>2.5</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3289,7 +3298,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3297,17 +3306,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3315,7 +3324,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3323,17 +3332,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3341,7 +3350,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3349,13 +3358,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3367,7 +3376,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3375,13 +3384,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3393,7 +3402,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3401,17 +3410,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3419,7 +3428,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3427,17 +3436,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3453,17 +3462,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3479,51 +3488,103 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" ht="26.25" customHeight="1">
-      <c r="K100" s="10">
-        <v>6691.8299999999999</v>
-      </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>135</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
         <v>136</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c t="s" r="F101" s="12">
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>55</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
         <v>137</v>
       </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
-      <c t="s" r="I101" s="14">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
         <v>138</v>
       </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>30</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" ht="26.25" customHeight="1">
+      <c r="K102" s="10">
+        <v>6726.3299999999999</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="11">
+        <v>139</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c t="s" r="F103" s="12">
+        <v>140</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c t="s" r="I103" s="14">
+        <v>141</v>
+      </c>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="299">
+  <mergeCells count="305">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3819,10 +3880,16 @@
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I101:N101"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:N103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
